--- a/data/trans_dic/P6906-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6906-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>51,94%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22,06%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,71%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,09%</t>
         </is>
       </c>
     </row>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>5,27; 28,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>20,13; 83,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>6,34; 48,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +744,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>0,0; 29,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>0,0; 49,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>7,74; 58,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>0,0; 54,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>5,43; 23,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>16,59; 57,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>10,4; 44,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 38,67</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,79%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>20,19; 36,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>14,93; 33,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>10,84; 29,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>8,96; 40,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>15,03; 33,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>20,34; 43,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>18,41; 44,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>15,26; 42,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>20,36; 32,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,32</t>
+          <t>19,07; 34,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>17,29; 32,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>15,21; 35,1</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,31%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,5%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>14,92; 29,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>14,57; 31,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>15,76; 32,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>13,55; 30,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>12,91; 32,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>26,0; 49,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>17,74; 39,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>19,09; 35,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,01</t>
+          <t>16,51; 28,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>20,79; 35,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>19,19; 32,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>17,74; 30,51</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,62%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>15,93; 32,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>21,02; 42,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>16,24; 35,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>11,56; 27,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>15,39; 43,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>8,31; 35,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>23,3; 48,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>17,4; 31,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>18,08; 32,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>18,64; 34,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>21,03; 37,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>16,8; 26,48</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,44%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,86%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,91%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,7%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,95%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>8,08; 30,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>14,44; 41,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>19,64; 50,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>8,94; 25,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 43,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>12,92; 57,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>26,19; 64,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>27,58; 45,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>8,11; 26,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>18,18; 41,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>26,23; 49,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>19,19; 31,77</t>
         </is>
       </c>
     </row>
@@ -1391,27 +1391,27 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>19,53%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,83%</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 72,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,0; 40,88</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,55%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,64%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,24%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,64%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>18,68; 26,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>21,5; 31,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>19,45; 29,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>14,06; 22,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>16,67; 27,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>23,1; 35,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>26,98; 39,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>22,33; 31,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>19,21; 25,93</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>23,55; 31,38</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>23,64; 31,07</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>19,59; 26,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6906-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>12,61%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,74</t>
+          <t>0,0; 57,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,67</t>
+          <t>0,0; 40,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>24,71%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,96; 40,64</t>
+          <t>9,92; 42,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,26; 42,98</t>
+          <t>15,86; 43,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,21; 35,1</t>
+          <t>15,52; 36,42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>23,39%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,55; 30,42</t>
+          <t>13,34; 30,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,09; 35,69</t>
+          <t>19,13; 35,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,74; 30,51</t>
+          <t>17,68; 30,51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>19,94%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,56; 27,58</t>
+          <t>11,73; 27,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,4; 31,16</t>
+          <t>10,68; 29,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,8; 26,48</t>
+          <t>13,29; 25,4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>36,27%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>25,14%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,94; 25,52</t>
+          <t>9,19; 25,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,58; 45,66</t>
+          <t>27,92; 46,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,19; 31,77</t>
+          <t>19,27; 31,9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19,41%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>19,53%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>9,69%</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,72</t>
+          <t>0,0; 72,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,88</t>
+          <t>0,0; 41,31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>22,59%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25,97%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23,9%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>18,98%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>21,64%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>29,55%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>32,64%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>25,18%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>22,29%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>27,39%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>27,24%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>22,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>18,68; 26,81</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>21,5; 31,52</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>19,45; 29,0</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>14,06; 22,85</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14,39; 23,34</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>16,67; 27,71</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>23,1; 35,86</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>26,98; 39,47</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>22,33; 31,4</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>18,32; 30,06</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>19,21; 25,93</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>23,55; 31,38</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>23,64; 31,07</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>19,59; 26,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>17,96; 25,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P6906-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 28,19</t>
+          <t>3,93; 27,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,13; 83,24</t>
+          <t>20,91; 83,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,34; 48,66</t>
+          <t>6,34; 49,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,53</t>
+          <t>0,0; 29,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,89</t>
+          <t>0,0; 55,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,74; 58,3</t>
+          <t>7,61; 58,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,42</t>
+          <t>0,0; 51,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,43; 23,42</t>
+          <t>5,08; 23,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,59; 57,72</t>
+          <t>16,51; 59,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,4; 44,06</t>
+          <t>10,65; 44,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,0</t>
+          <t>0,0; 46,0</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,19; 36,12</t>
+          <t>19,71; 36,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,93; 33,23</t>
+          <t>14,65; 33,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,84; 29,2</t>
+          <t>10,54; 29,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,92; 42,75</t>
+          <t>9,64; 41,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 33,15</t>
+          <t>15,57; 34,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,34; 43,34</t>
+          <t>18,55; 42,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,41; 44,43</t>
+          <t>19,24; 45,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,86; 43,4</t>
+          <t>15,88; 43,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,36; 32,55</t>
+          <t>20,18; 33,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,07; 34,06</t>
+          <t>19,23; 34,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,29; 32,12</t>
+          <t>16,87; 31,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,52; 36,42</t>
+          <t>15,87; 37,64</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,92; 29,93</t>
+          <t>15,09; 30,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,57; 31,12</t>
+          <t>14,4; 30,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,76; 32,17</t>
+          <t>16,22; 32,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,34; 30,28</t>
+          <t>12,57; 30,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,91; 32,0</t>
+          <t>12,37; 32,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,0; 49,75</t>
+          <t>25,25; 47,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,74; 39,61</t>
+          <t>18,93; 40,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,13; 35,46</t>
+          <t>18,9; 35,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,51; 28,7</t>
+          <t>16,14; 28,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,79; 35,89</t>
+          <t>21,23; 34,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,19; 32,28</t>
+          <t>19,79; 31,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,68; 30,51</t>
+          <t>17,76; 29,79</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 32,48</t>
+          <t>15,91; 33,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,02; 42,03</t>
+          <t>20,44; 39,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,24; 35,88</t>
+          <t>15,97; 35,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,73; 27,86</t>
+          <t>11,92; 28,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,39; 43,94</t>
+          <t>15,43; 44,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 35,92</t>
+          <t>7,98; 33,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,3; 48,65</t>
+          <t>22,87; 49,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,68; 29,64</t>
+          <t>9,42; 28,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,08; 32,72</t>
+          <t>17,13; 32,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,64; 34,95</t>
+          <t>19,41; 35,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,03; 37,87</t>
+          <t>21,5; 37,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,29; 25,4</t>
+          <t>13,37; 26,06</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,08; 30,27</t>
+          <t>8,11; 28,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,44; 41,23</t>
+          <t>14,3; 41,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,64; 50,03</t>
+          <t>20,04; 49,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,19; 25,73</t>
+          <t>8,84; 26,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,2</t>
+          <t>0,0; 43,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,92; 57,25</t>
+          <t>13,63; 54,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,19; 64,72</t>
+          <t>24,86; 64,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,92; 46,2</t>
+          <t>26,24; 45,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,11; 26,87</t>
+          <t>8,2; 26,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,18; 41,42</t>
+          <t>18,11; 40,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26,23; 49,13</t>
+          <t>26,81; 49,39</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,27; 31,9</t>
+          <t>19,5; 32,37</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1460,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,57</t>
+          <t>0,0; 71,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,31</t>
+          <t>0,0; 40,7</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18,68; 26,81</t>
+          <t>18,65; 26,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,5; 31,52</t>
+          <t>20,88; 31,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>19,45; 29,0</t>
+          <t>19,25; 29,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,39; 23,34</t>
+          <t>14,76; 24,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,67; 27,71</t>
+          <t>16,67; 27,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>23,1; 35,86</t>
+          <t>23,69; 36,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,98; 39,47</t>
+          <t>26,65; 39,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,32; 30,06</t>
+          <t>18,18; 29,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,21; 25,93</t>
+          <t>19,33; 25,67</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23,55; 31,38</t>
+          <t>23,65; 31,42</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>23,64; 31,07</t>
+          <t>23,8; 31,32</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,96; 25,58</t>
+          <t>18,36; 26,11</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población quesu trabajo le afecta de manera que tiene problemas de sueño</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6008</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5364</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3783</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2911</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2690</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7984</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7279</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6695</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2690</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1815; 12482</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2160; 8574</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1088; 8466</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2171</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5854</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5579</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>886; 6782</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7874</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3353; 15477</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3365; 12026</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3067; 12853</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9814</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39213</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19625</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15619</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13235</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18761</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>20274</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14414</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13701</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>57973</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>39899</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>30033</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26936</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>28043; 51545</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12643; 29059</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8598; 24078</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5698; 24711</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12344; 27077</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>12450; 28331</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8905; 21029</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7934; 21482</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>44715; 73695</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>29495; 52157</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21577; 40415</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17303; 41038</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>27675</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21980</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26634</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19819</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14656</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>26307</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20075</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20197</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>42331</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>48286</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>46709</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>40016</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19015; 38564</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14223; 30581</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18343; 37006</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12005; 28754</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8664; 22696</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18341; 34724</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13529; 28646</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14280; 26872</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31644; 55928</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>36392; 59747</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>36531; 58605</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>30382; 50967</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>26075</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26634</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22898</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20611</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10224</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7815</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>19386</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31921</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>36299</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>34449</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>42284</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>52532</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>17672; 37013</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18195; 35114</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14600; 32441</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>12941; 31471</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5714; 16424</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3306; 14027</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>12830; 28010</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>14595; 44673</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>25374; 48674</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>25326; 46698</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>31724; 55823</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>35223; 68658</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7716</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11117</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14701</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10778</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>13816</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>20131</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9742</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18298</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>28517</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>30909</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3720; 13122</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5982; 17223</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8988; 22190</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5959; 18156</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6033</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3214; 12892</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7657; 19796</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14563; 25329</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4905; 15780</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11851; 26175</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>20280; 37365</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>23969; 39794</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1070</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 894</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2070</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1070</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2375</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 633</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 633</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>106686</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>84720</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>83635</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>64442</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>47644</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>63492</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>70601</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>89206</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>154330</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>148212</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>154237</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>153648</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>88075; 126925</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>68102; 101429</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>67365; 101921</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>50125; 82915</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>36699; 60513</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>50884; 77900</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>57639; 85697</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>64394; 106237</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>133854; 177728</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>127966; 169978</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>134773; 177346</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>127376; 181106</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>